--- a/bau-cu/micro2/public/ket-qua/2020-2024-vong1.xlsx
+++ b/bau-cu/micro2/public/ket-qua/2020-2024-vong1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\binhle\gdhh-web\bau-cu\micro2\public\ket-qua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647867F-CC9F-48C1-8B2B-F30BDDD90CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5FF437-E292-4A56-8E66-501EF383CEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-2010" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="119">
   <si>
     <t>vong</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>Huynh Trưởng</t>
+  </si>
+  <si>
+    <t>Singapore Time</t>
   </si>
 </sst>
 </file>
@@ -1243,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:J531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1259,9 +1262,10 @@
     <col min="7" max="7" width="13.09765625" customWidth="1"/>
     <col min="8" max="8" width="15.8984375" customWidth="1"/>
     <col min="9" max="9" width="28.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="22.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
@@ -1289,8 +1293,11 @@
       <c r="I1" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1320,8 +1327,11 @@
         <f>COUNTIF(F:F,F2)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>43814.495729166665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1351,8 +1361,11 @@
         <f t="shared" ref="I3:I66" si="1">COUNTIF(F:F,F3)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>43814.495868055557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1382,8 +1395,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>43814.496145833335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1413,8 +1429,11 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <v>43814.49658564815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1444,8 +1463,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <v>43814.496898148151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1475,8 +1497,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>43814.497152777774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1506,8 +1531,11 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>43814.497881944444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1537,8 +1565,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>43814.499374999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1568,8 +1599,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <v>43814.500127314815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1599,8 +1633,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <v>43814.501840277779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1630,8 +1667,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>43814.495567129627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1661,8 +1701,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <v>43814.495659722219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1692,8 +1735,11 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <v>43814.49590277778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1723,8 +1769,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>43814.496053240742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1754,8 +1803,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>43814.496412037035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1785,8 +1837,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <v>43814.496620370373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1816,8 +1871,11 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="1">
+        <v>43814.497094907405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1847,8 +1905,11 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="1">
+        <v>43814.497187499997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1878,8 +1939,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1">
+        <v>43814.497465277775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1909,8 +1973,11 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <v>43814.49795138889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1940,8 +2007,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <v>43814.49895833333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1971,8 +2041,11 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1">
+        <v>43814.499212962961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2002,8 +2075,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1">
+        <v>43814.499305555553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2033,8 +2109,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1">
+        <v>43814.499560185184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2064,8 +2143,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="1">
+        <v>43814.499710648146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2095,8 +2177,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="1">
+        <v>43814.499930555554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2126,8 +2211,11 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1">
+        <v>43814.500127314815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2157,8 +2245,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="1">
+        <v>43814.5003125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2188,8 +2279,11 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1">
+        <v>43814.500486111108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2219,8 +2313,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="1">
+        <v>43814.500949074078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2250,8 +2347,11 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="1">
+        <v>43814.495879629627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2281,8 +2381,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="1">
+        <v>43814.496018518519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2312,8 +2415,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="1">
+        <v>43814.496157407404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2343,8 +2449,11 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="1">
+        <v>43814.49627314815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2374,8 +2483,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="1">
+        <v>43814.496446759258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2405,8 +2517,11 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="1">
+        <v>43814.49658564815</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2436,8 +2551,11 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="1">
+        <v>43814.496828703705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2467,8 +2585,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1">
+        <v>43814.497013888889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2498,8 +2619,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="1">
+        <v>43814.497314814813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2529,8 +2653,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="1">
+        <v>43814.497858796298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2560,8 +2687,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1">
+        <v>43814.497291666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2591,8 +2721,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1">
+        <v>43814.497835648152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2622,8 +2755,11 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="1">
+        <v>43814.49927083333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2653,8 +2789,11 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="1">
+        <v>43814.499548611115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2684,8 +2823,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="1">
+        <v>43814.499965277777</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2715,8 +2857,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="1">
+        <v>43814.500243055554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2746,8 +2891,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="1">
+        <v>43814.500358796293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2777,8 +2925,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="1">
+        <v>43814.503611111111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2808,8 +2959,11 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="1">
+        <v>43814.504374999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2839,8 +2993,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="1">
+        <v>43814.507256944446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2870,8 +3027,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="1">
+        <v>43814.49628472222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2901,8 +3061,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="1">
+        <v>43814.496817129628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -2932,8 +3095,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="1">
+        <v>43814.497210648151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -2963,8 +3129,11 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="1">
+        <v>43814.498206018521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -2994,8 +3163,11 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="1">
+        <v>43814.498831018522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -3025,8 +3197,11 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="1">
+        <v>43814.499027777776</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3056,8 +3231,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="1">
+        <v>43814.500162037039</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3087,8 +3265,11 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="1">
+        <v>43814.500532407408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3118,8 +3299,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="1">
+        <v>43814.501006944447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3149,8 +3333,11 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="1">
+        <v>43814.501446759263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3180,8 +3367,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="1">
+        <v>43814.495451388888</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3211,8 +3401,11 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="1">
+        <v>43814.496018518519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3242,8 +3435,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="1">
+        <v>43814.496828703705</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3273,8 +3469,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="1">
+        <v>43814.497071759259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3304,8 +3503,11 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="1">
+        <v>43814.49726851852</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3335,8 +3537,11 @@
         <f t="shared" ref="I67:I130" si="3">COUNTIF(F:F,F67)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="1">
+        <v>43814.497476851851</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3366,8 +3571,11 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="1">
+        <v>43814.497685185182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -3397,8 +3605,11 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="1">
+        <v>43814.498171296298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -3428,8 +3639,11 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="1">
+        <v>43814.498518518521</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -3459,8 +3673,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="1">
+        <v>43814.499699074076</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -3490,8 +3707,11 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="1">
+        <v>43814.495740740742</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -3521,8 +3741,11 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="1">
+        <v>43814.496006944442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -3552,8 +3775,11 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="1">
+        <v>43814.49622685185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -3583,8 +3809,11 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="1">
+        <v>43814.496365740742</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -3614,8 +3843,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="1">
+        <v>43814.496562499997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -3645,8 +3877,11 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="1">
+        <v>43814.496793981481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -3676,8 +3911,11 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="1">
+        <v>43814.496932870374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -3707,8 +3945,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="1">
+        <v>43814.497164351851</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -3738,8 +3979,11 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="1">
+        <v>43814.49726851852</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -3769,8 +4013,11 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="1">
+        <v>43814.497581018521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -3800,8 +4047,11 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="1">
+        <v>43814.495000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -3831,8 +4081,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="1">
+        <v>43814.495069444441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -3862,8 +4115,11 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="1">
+        <v>43814.495138888888</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -3893,8 +4149,11 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="1">
+        <v>43814.495289351849</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -3924,8 +4183,11 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="1">
+        <v>43814.495625000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -3955,8 +4217,11 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="1">
+        <v>43814.495763888888</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -3986,8 +4251,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="1">
+        <v>43814.496099537035</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -4017,8 +4285,11 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="1">
+        <v>43814.496469907404</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -4048,8 +4319,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="1">
+        <v>43814.496689814812</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -4079,8 +4353,11 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="1">
+        <v>43814.497187499997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -4110,8 +4387,11 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="1">
+        <v>43814.495150462964</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -4141,8 +4421,11 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="1">
+        <v>43814.495300925926</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -4172,8 +4455,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="1">
+        <v>43814.495393518519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -4203,8 +4489,11 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="1">
+        <v>43814.495555555557</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -4234,8 +4523,11 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="1">
+        <v>43814.495671296296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -4265,8 +4557,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="1">
+        <v>43814.495775462965</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -4296,8 +4591,11 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="1">
+        <v>43814.495937500003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -4327,8 +4625,11 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="1">
+        <v>43814.496192129627</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -4358,8 +4659,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1">
+        <v>43814.496319444443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -4389,8 +4693,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="1">
+        <v>43814.496423611112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -4420,8 +4727,11 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="1">
+        <v>43814.495011574072</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -4451,8 +4761,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="1">
+        <v>43814.495208333334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -4482,8 +4795,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="1">
+        <v>43814.495451388888</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -4513,8 +4829,11 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="1">
+        <v>43814.495671296296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -4544,8 +4863,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="1">
+        <v>43814.495763888888</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -4575,8 +4897,11 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="1">
+        <v>43814.49591435185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -4606,8 +4931,11 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="1">
+        <v>43814.496296296296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -4637,8 +4965,11 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="1">
+        <v>43814.496527777781</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -4668,8 +4999,11 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="1">
+        <v>43814.496851851851</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -4699,8 +5033,11 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="1">
+        <v>43814.498622685183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -4730,8 +5067,11 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="1">
+        <v>43814.495034722226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -4761,8 +5101,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="1">
+        <v>43814.495370370372</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -4792,8 +5135,11 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="1">
+        <v>43814.495891203704</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -4823,8 +5169,11 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="1">
+        <v>43814.496111111112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -4854,8 +5203,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="1">
+        <v>43814.49628472222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -4885,8 +5237,11 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="1">
+        <v>43814.496458333335</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -4916,8 +5271,11 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="1">
+        <v>43814.496562499997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -4947,8 +5305,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="1">
+        <v>43814.496701388889</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -4978,8 +5339,11 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="1">
+        <v>43814.497037037036</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -5009,8 +5373,11 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="1">
+        <v>43814.497696759259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -5040,8 +5407,11 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="1">
+        <v>43814.495520833334</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -5071,8 +5441,11 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="1">
+        <v>43814.49596064815</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -5102,8 +5475,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="1">
+        <v>43814.496469907404</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -5133,8 +5509,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="1">
+        <v>43814.497013888889</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -5164,8 +5543,11 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="1">
+        <v>43814.49763888889</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -5195,8 +5577,11 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="1">
+        <v>43814.498252314814</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -5226,8 +5611,11 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="1">
+        <v>43814.498738425929</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -5257,8 +5645,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="1">
+        <v>43814.499363425923</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -5288,8 +5679,11 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="1">
+        <v>43814.500451388885</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -5319,8 +5713,11 @@
         <f t="shared" ref="I131:I194" si="5">COUNTIF(F:F,F131)</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="1">
+        <v>43814.501458333332</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -5350,8 +5747,11 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="1">
+        <v>43814.49554398148</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -5381,8 +5781,11 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="1">
+        <v>43814.496168981481</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -5412,8 +5815,11 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="1">
+        <v>43814.496365740742</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -5443,8 +5849,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="1">
+        <v>43814.497106481482</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -5474,8 +5883,11 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="1">
+        <v>43814.497523148151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -5505,8 +5917,11 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="1">
+        <v>43814.497893518521</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -5536,8 +5951,11 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="1">
+        <v>43814.498240740744</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -5567,8 +5985,11 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="1">
+        <v>43814.498819444445</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -5598,8 +6019,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="1">
+        <v>43814.499930555554</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -5629,8 +6053,11 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="1">
+        <v>43814.500162037039</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -5660,8 +6087,11 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="1">
+        <v>43814.495057870372</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -5691,8 +6121,11 @@
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="1">
+        <v>43814.495150462964</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -5722,8 +6155,11 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="1">
+        <v>43814.495208333334</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -5753,8 +6189,11 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="1">
+        <v>43814.495706018519</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -5784,8 +6223,11 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="1">
+        <v>43814.496689814812</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -5815,8 +6257,11 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="1">
+        <v>43814.497094907405</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -5846,8 +6291,11 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="1">
+        <v>43814.497407407405</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -5877,8 +6325,11 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="1">
+        <v>43814.497615740744</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -5908,8 +6359,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="1">
+        <v>43814.498055555552</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -5939,8 +6393,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="1">
+        <v>43814.498252314814</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -5970,8 +6427,11 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="1">
+        <v>43814.495300925926</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -6001,8 +6461,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="1">
+        <v>43814.495381944442</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -6032,8 +6495,11 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="1">
+        <v>43814.495567129627</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -6063,8 +6529,11 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="1">
+        <v>43814.495925925927</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -6094,8 +6563,11 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="1">
+        <v>43814.496215277781</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -6125,8 +6597,11 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="1">
+        <v>43814.496655092589</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -6156,8 +6631,11 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="1">
+        <v>43814.496921296297</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -6187,8 +6665,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="1">
+        <v>43814.497060185182</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -6218,8 +6699,11 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="1">
+        <v>43814.497210648151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -6249,8 +6733,11 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="1">
+        <v>43814.500104166669</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -6280,8 +6767,11 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="1">
+        <v>43814.496921296297</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -6311,8 +6801,11 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="1">
+        <v>43814.497372685182</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -6342,8 +6835,11 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="1">
+        <v>43814.497685185182</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -6373,8 +6869,11 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="1">
+        <v>43814.497812499998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -6404,8 +6903,11 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="1">
+        <v>43814.498043981483</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -6435,8 +6937,11 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="1">
+        <v>43814.499050925922</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -6466,8 +6971,11 @@
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="1">
+        <v>43814.499525462961</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -6497,8 +7005,11 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="1">
+        <v>43814.500150462962</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -6528,8 +7039,11 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="1">
+        <v>43814.5003125</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -6559,8 +7073,11 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="1">
+        <v>43814.500509259262</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -6590,8 +7107,11 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="1">
+        <v>43814.495370370372</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -6621,8 +7141,11 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="1">
+        <v>43814.495717592596</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -6652,8 +7175,11 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="1">
+        <v>43814.495787037034</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>174</v>
       </c>
@@ -6683,8 +7209,11 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="1">
+        <v>43814.496134259258</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -6714,8 +7243,11 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="1">
+        <v>43814.496481481481</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -6745,8 +7277,11 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="1">
+        <v>43814.49659722222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -6776,8 +7311,11 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="1">
+        <v>43814.496724537035</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>178</v>
       </c>
@@ -6807,8 +7345,11 @@
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="1">
+        <v>43814.496840277781</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -6838,8 +7379,11 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="1">
+        <v>43814.496979166666</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>180</v>
       </c>
@@ -6869,8 +7413,11 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="1">
+        <v>43814.497164351851</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -6900,8 +7447,11 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="1">
+        <v>43814.495682870373</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>182</v>
       </c>
@@ -6931,8 +7481,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="1">
+        <v>43814.495740740742</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -6962,8 +7515,11 @@
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="1">
+        <v>43814.495868055557</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -6993,8 +7549,11 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="1">
+        <v>43814.496006944442</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>185</v>
       </c>
@@ -7024,8 +7583,11 @@
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="1">
+        <v>43814.496331018519</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>186</v>
       </c>
@@ -7055,8 +7617,11 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="1">
+        <v>43814.496458333335</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>187</v>
       </c>
@@ -7086,8 +7651,11 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="1">
+        <v>43814.49664351852</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>188</v>
       </c>
@@ -7117,8 +7685,11 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="1">
+        <v>43814.497187499997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -7148,8 +7719,11 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="1">
+        <v>43814.49732638889</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>190</v>
       </c>
@@ -7179,8 +7753,11 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="1">
+        <v>43814.499050925922</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -7210,8 +7787,11 @@
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="1">
+        <v>43814.498067129629</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>192</v>
       </c>
@@ -7241,8 +7821,11 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="1">
+        <v>43814.498159722221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>193</v>
       </c>
@@ -7272,8 +7855,11 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="1">
+        <v>43814.49827546296</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>194</v>
       </c>
@@ -7303,8 +7889,11 @@
         <f t="shared" ref="I195:I258" si="7">COUNTIF(F:F,F195)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="1">
+        <v>43814.498356481483</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -7334,8 +7923,11 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="1">
+        <v>43814.498460648145</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>196</v>
       </c>
@@ -7365,8 +7957,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="1">
+        <v>43814.498553240737</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>197</v>
       </c>
@@ -7396,8 +7991,11 @@
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="1">
+        <v>43814.498657407406</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>198</v>
       </c>
@@ -7427,8 +8025,11 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="1">
+        <v>43814.498784722222</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -7458,8 +8059,11 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="1">
+        <v>43814.498888888891</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>200</v>
       </c>
@@ -7489,8 +8093,11 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="1">
+        <v>43814.498981481483</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>201</v>
       </c>
@@ -7520,8 +8127,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="1">
+        <v>43814.495289351849</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>202</v>
       </c>
@@ -7551,8 +8161,11 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="1">
+        <v>43814.495358796295</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>203</v>
       </c>
@@ -7582,8 +8195,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="1">
+        <v>43814.495682870373</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>204</v>
       </c>
@@ -7613,8 +8229,11 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="1">
+        <v>43814.496168981481</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>205</v>
       </c>
@@ -7644,8 +8263,11 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="1">
+        <v>43814.496469907404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>206</v>
       </c>
@@ -7675,8 +8297,11 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="1">
+        <v>43814.496655092589</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>207</v>
       </c>
@@ -7706,8 +8331,11 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="1">
+        <v>43814.496898148151</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>208</v>
       </c>
@@ -7737,8 +8365,11 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="1">
+        <v>43814.497731481482</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>209</v>
       </c>
@@ -7768,8 +8399,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" s="1">
+        <v>43814.498090277775</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>210</v>
       </c>
@@ -7799,8 +8433,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="1">
+        <v>43814.498888888891</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>211</v>
       </c>
@@ -7830,8 +8467,11 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="1">
+        <v>43814.495324074072</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>212</v>
       </c>
@@ -7861,8 +8501,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="1">
+        <v>43814.495520833334</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>213</v>
       </c>
@@ -7892,8 +8535,11 @@
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="1">
+        <v>43814.495891203704</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>214</v>
       </c>
@@ -7923,8 +8569,11 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="1">
+        <v>43814.496145833335</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>215</v>
       </c>
@@ -7954,8 +8603,11 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="1">
+        <v>43814.496967592589</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>216</v>
       </c>
@@ -7985,8 +8637,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" s="1">
+        <v>43814.497129629628</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>217</v>
       </c>
@@ -8016,8 +8671,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="1">
+        <v>43814.497233796297</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>218</v>
       </c>
@@ -8047,8 +8705,11 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="1">
+        <v>43814.497395833336</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>219</v>
       </c>
@@ -8078,8 +8739,11 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="1">
+        <v>43814.498229166667</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>220</v>
       </c>
@@ -8109,8 +8773,11 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="1">
+        <v>43814.498333333337</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>221</v>
       </c>
@@ -8140,8 +8807,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" s="1">
+        <v>43814.495162037034</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>222</v>
       </c>
@@ -8171,8 +8841,11 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="1">
+        <v>43814.495648148149</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>223</v>
       </c>
@@ -8202,8 +8875,11 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" s="1">
+        <v>43814.495752314811</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>224</v>
       </c>
@@ -8233,8 +8909,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" s="1">
+        <v>43814.495937500003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>225</v>
       </c>
@@ -8264,8 +8943,11 @@
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="1">
+        <v>43814.496076388888</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>226</v>
       </c>
@@ -8295,8 +8977,11 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" s="1">
+        <v>43814.496215277781</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>227</v>
       </c>
@@ -8326,8 +9011,11 @@
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="1">
+        <v>43814.496412037035</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>228</v>
       </c>
@@ -8357,8 +9045,11 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" s="1">
+        <v>43814.496504629627</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>229</v>
       </c>
@@ -8388,8 +9079,11 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" s="1">
+        <v>43814.496747685182</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>230</v>
       </c>
@@ -8419,8 +9113,11 @@
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231" s="1">
+        <v>43814.49690972222</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>231</v>
       </c>
@@ -8450,8 +9147,11 @@
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" s="1">
+        <v>43814.496087962965</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>232</v>
       </c>
@@ -8481,8 +9181,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233" s="1">
+        <v>43814.496400462966</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>233</v>
       </c>
@@ -8512,8 +9215,11 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" s="1">
+        <v>43814.497013888889</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>234</v>
       </c>
@@ -8543,8 +9249,11 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" s="1">
+        <v>43814.497453703705</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>235</v>
       </c>
@@ -8574,8 +9283,11 @@
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="1">
+        <v>43814.497662037036</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>236</v>
       </c>
@@ -8605,8 +9317,11 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" s="1">
+        <v>43814.498252314814</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>237</v>
       </c>
@@ -8636,8 +9351,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" s="1">
+        <v>43814.499108796299</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>238</v>
       </c>
@@ -8667,8 +9385,11 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" s="1">
+        <v>43814.499212962961</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>239</v>
       </c>
@@ -8698,8 +9419,11 @@
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" s="1">
+        <v>43814.500671296293</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>240</v>
       </c>
@@ -8729,8 +9453,11 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" s="1">
+        <v>43814.500960648147</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>241</v>
       </c>
@@ -8760,8 +9487,11 @@
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" s="1">
+        <v>43814.495381944442</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>242</v>
       </c>
@@ -8791,8 +9521,11 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" s="1">
+        <v>43814.49554398148</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>243</v>
       </c>
@@ -8822,8 +9555,11 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" s="1">
+        <v>43814.495694444442</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>244</v>
       </c>
@@ -8853,8 +9589,11 @@
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" s="1">
+        <v>43814.495787037034</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>245</v>
       </c>
@@ -8884,8 +9623,11 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" s="1">
+        <v>43814.495856481481</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>246</v>
       </c>
@@ -8915,8 +9657,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" s="1">
+        <v>43814.495983796296</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>247</v>
       </c>
@@ -8946,8 +9691,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" s="1">
+        <v>43814.49622685185</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>248</v>
       </c>
@@ -8977,8 +9725,11 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" s="1">
+        <v>43814.497407407405</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>249</v>
       </c>
@@ -9008,8 +9759,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" s="1">
+        <v>43814.497488425928</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>250</v>
       </c>
@@ -9039,8 +9793,11 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" s="1">
+        <v>43814.497557870367</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>251</v>
       </c>
@@ -9070,8 +9827,11 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" s="1">
+        <v>43814.495509259257</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>252</v>
       </c>
@@ -9101,8 +9861,11 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" s="1">
+        <v>43814.495625000003</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>253</v>
       </c>
@@ -9132,8 +9895,11 @@
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" s="1">
+        <v>43814.495729166665</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>254</v>
       </c>
@@ -9163,8 +9929,11 @@
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" s="1">
+        <v>43814.496006944442</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>255</v>
       </c>
@@ -9194,8 +9963,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="1">
+        <v>43814.496134259258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>256</v>
       </c>
@@ -9225,8 +9997,11 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" s="1">
+        <v>43814.496388888889</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>257</v>
       </c>
@@ -9256,8 +10031,11 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" s="1">
+        <v>43814.496990740743</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>258</v>
       </c>
@@ -9287,8 +10065,11 @@
         <f t="shared" ref="I259:I322" si="9">COUNTIF(F:F,F259)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" s="1">
+        <v>43814.497418981482</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>259</v>
       </c>
@@ -9318,8 +10099,11 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" s="1">
+        <v>43814.499131944445</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>260</v>
       </c>
@@ -9349,8 +10133,11 @@
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" s="1">
+        <v>43814.499884259261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>261</v>
       </c>
@@ -9380,8 +10167,11 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262" s="1">
+        <v>43814.50099537037</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>262</v>
       </c>
@@ -9411,8 +10201,11 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263" s="1">
+        <v>43814.50141203704</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>263</v>
       </c>
@@ -9442,8 +10235,11 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" s="1">
+        <v>43814.501956018517</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>264</v>
       </c>
@@ -9473,8 +10269,11 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="1">
+        <v>43814.502118055556</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>265</v>
       </c>
@@ -9504,8 +10303,11 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" s="1">
+        <v>43814.502291666664</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>266</v>
       </c>
@@ -9535,8 +10337,11 @@
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267" s="1">
+        <v>43814.502511574072</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>267</v>
       </c>
@@ -9566,8 +10371,11 @@
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268" s="1">
+        <v>43814.502627314818</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>268</v>
       </c>
@@ -9597,8 +10405,11 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="1">
+        <v>43814.503287037034</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>269</v>
       </c>
@@ -9628,8 +10439,11 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" s="1">
+        <v>43814.503807870373</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>270</v>
       </c>
@@ -9659,8 +10473,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" s="1">
+        <v>43814.50409722222</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>271</v>
       </c>
@@ -9690,8 +10507,11 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" s="1">
+        <v>43814.501689814817</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>272</v>
       </c>
@@ -9721,8 +10541,11 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="1">
+        <v>43814.501793981479</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -9752,8 +10575,11 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" s="1">
+        <v>43814.501921296294</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>274</v>
       </c>
@@ -9783,8 +10609,11 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" s="1">
+        <v>43814.50204861111</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>275</v>
       </c>
@@ -9814,8 +10643,11 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276" s="1">
+        <v>43814.502118055556</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>276</v>
       </c>
@@ -9845,8 +10677,11 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="1">
+        <v>43814.502303240741</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>277</v>
       </c>
@@ -9876,8 +10711,11 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278" s="1">
+        <v>43814.502384259256</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>278</v>
       </c>
@@ -9907,8 +10745,11 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="1">
+        <v>43814.502488425926</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>279</v>
       </c>
@@ -9938,8 +10779,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="1">
+        <v>43814.502696759257</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>280</v>
       </c>
@@ -9969,8 +10813,11 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J281" s="1">
+        <v>43814.502789351849</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>281</v>
       </c>
@@ -10000,8 +10847,11 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282" s="1">
+        <v>43814.496458333335</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>282</v>
       </c>
@@ -10031,8 +10881,11 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" s="1">
+        <v>43814.49726851852</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>283</v>
       </c>
@@ -10062,8 +10915,11 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="1">
+        <v>43814.497812499998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>284</v>
       </c>
@@ -10093,8 +10949,11 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="1">
+        <v>43814.498680555553</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>285</v>
       </c>
@@ -10124,8 +10983,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="1">
+        <v>43814.499027777776</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>286</v>
       </c>
@@ -10155,8 +11017,11 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="1">
+        <v>43814.499467592592</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>287</v>
       </c>
@@ -10186,8 +11051,11 @@
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="1">
+        <v>43814.499918981484</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>288</v>
       </c>
@@ -10217,8 +11085,11 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289" s="1">
+        <v>43814.500844907408</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>289</v>
       </c>
@@ -10248,8 +11119,11 @@
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="1">
+        <v>43814.501527777778</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>290</v>
       </c>
@@ -10279,8 +11153,11 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J291" s="1">
+        <v>43814.501666666663</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>291</v>
       </c>
@@ -10310,8 +11187,11 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J292" s="1">
+        <v>43814.49560185185</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>292</v>
       </c>
@@ -10341,8 +11221,11 @@
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293" s="1">
+        <v>43814.495717592596</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>293</v>
       </c>
@@ -10372,8 +11255,11 @@
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294" s="1">
+        <v>43814.495879629627</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>294</v>
       </c>
@@ -10403,8 +11289,11 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="1">
+        <v>43814.496041666665</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>295</v>
       </c>
@@ -10434,8 +11323,11 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J296" s="1">
+        <v>43814.496157407404</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>296</v>
       </c>
@@ -10465,8 +11357,11 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297" s="1">
+        <v>43814.496319444443</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>297</v>
       </c>
@@ -10496,8 +11391,11 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298" s="1">
+        <v>43814.496493055558</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>298</v>
       </c>
@@ -10527,8 +11425,11 @@
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J299" s="1">
+        <v>43814.49664351852</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>299</v>
       </c>
@@ -10558,8 +11459,11 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J300" s="1">
+        <v>43814.496793981481</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>300</v>
       </c>
@@ -10589,8 +11493,11 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J301" s="1">
+        <v>43814.496944444443</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>301</v>
       </c>
@@ -10620,8 +11527,11 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J302" s="1">
+        <v>43814.497939814813</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>302</v>
       </c>
@@ -10651,8 +11561,11 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J303" s="1">
+        <v>43814.498032407406</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>303</v>
       </c>
@@ -10682,8 +11595,11 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J304" s="1">
+        <v>43814.498194444444</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>304</v>
       </c>
@@ -10713,8 +11629,11 @@
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J305" s="1">
+        <v>43814.499641203707</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>305</v>
       </c>
@@ -10744,8 +11663,11 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J306" s="1">
+        <v>43814.499803240738</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>306</v>
       </c>
@@ -10775,8 +11697,11 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J307" s="1">
+        <v>43814.500347222223</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>307</v>
       </c>
@@ -10806,8 +11731,11 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J308" s="1">
+        <v>43814.500567129631</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>308</v>
       </c>
@@ -10837,8 +11765,11 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="1">
+        <v>43814.501458333332</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>309</v>
       </c>
@@ -10868,8 +11799,11 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J310" s="1">
+        <v>43814.501770833333</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>310</v>
       </c>
@@ -10899,8 +11833,11 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J311" s="1">
+        <v>43814.502326388887</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>311</v>
       </c>
@@ -10930,8 +11867,11 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J312" s="1">
+        <v>43814.506979166668</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
         <v>312</v>
       </c>
@@ -10961,8 +11901,11 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="1">
+        <v>43814.507013888891</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>313</v>
       </c>
@@ -10992,8 +11935,11 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J314" s="1">
+        <v>43814.507071759261</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>314</v>
       </c>
@@ -11023,8 +11969,11 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="1">
+        <v>43814.507164351853</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>315</v>
       </c>
@@ -11054,8 +12003,11 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J316" s="1">
+        <v>43814.507256944446</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>316</v>
       </c>
@@ -11085,8 +12037,11 @@
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="1">
+        <v>43814.507361111115</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>317</v>
       </c>
@@ -11116,8 +12071,11 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J318" s="1">
+        <v>43814.50744212963</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>318</v>
       </c>
@@ -11147,8 +12105,11 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J319" s="1">
+        <v>43814.507604166669</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>319</v>
       </c>
@@ -11178,8 +12139,11 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J320" s="1">
+        <v>43814.507708333331</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>320</v>
       </c>
@@ -11209,8 +12173,11 @@
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J321" s="1">
+        <v>43814.507905092592</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
         <v>321</v>
       </c>
@@ -11240,8 +12207,11 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J322" s="1">
+        <v>43814.498692129629</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>322</v>
       </c>
@@ -11271,8 +12241,11 @@
         <f t="shared" ref="I323:I386" si="11">COUNTIF(F:F,F323)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J323" s="1">
+        <v>43814.498738425929</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
         <v>323</v>
       </c>
@@ -11302,8 +12275,11 @@
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J324" s="1">
+        <v>43814.498773148145</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>324</v>
       </c>
@@ -11333,8 +12309,11 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J325" s="1">
+        <v>43814.499050925922</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>325</v>
       </c>
@@ -11364,8 +12343,11 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J326" s="1">
+        <v>43814.499259259261</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>326</v>
       </c>
@@ -11395,8 +12377,11 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J327" s="1">
+        <v>43814.499618055554</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>327</v>
       </c>
@@ -11426,8 +12411,11 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J328" s="1">
+        <v>43814.4999537037</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>328</v>
       </c>
@@ -11457,8 +12445,11 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J329" s="1">
+        <v>43814.500138888892</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>329</v>
       </c>
@@ -11488,8 +12479,11 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J330" s="1">
+        <v>43814.500474537039</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>330</v>
       </c>
@@ -11519,8 +12513,11 @@
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J331" s="1">
+        <v>43814.50068287037</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>331</v>
       </c>
@@ -11550,8 +12547,11 @@
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J332" s="1">
+        <v>43814.501099537039</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>332</v>
       </c>
@@ -11581,8 +12581,11 @@
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J333" s="1">
+        <v>43814.501180555555</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>333</v>
       </c>
@@ -11612,8 +12615,11 @@
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J334" s="1">
+        <v>43814.501342592594</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>334</v>
       </c>
@@ -11643,8 +12649,11 @@
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J335" s="1">
+        <v>43814.501504629632</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>335</v>
       </c>
@@ -11674,8 +12683,11 @@
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J336" s="1">
+        <v>43814.501817129632</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>336</v>
       </c>
@@ -11705,8 +12717,11 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J337" s="1">
+        <v>43814.50203703704</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>337</v>
       </c>
@@ -11736,8 +12751,11 @@
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J338" s="1">
+        <v>43814.502280092594</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>338</v>
       </c>
@@ -11767,8 +12785,11 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J339" s="1">
+        <v>43814.503009259257</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>339</v>
       </c>
@@ -11798,8 +12819,11 @@
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J340" s="1">
+        <v>43814.503101851849</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>340</v>
       </c>
@@ -11829,8 +12853,11 @@
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J341" s="1">
+        <v>43814.503611111111</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
         <v>341</v>
       </c>
@@ -11860,8 +12887,11 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J342" s="1">
+        <v>43814.499745370369</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>342</v>
       </c>
@@ -11891,8 +12921,11 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J343" s="1">
+        <v>43814.499780092592</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>343</v>
       </c>
@@ -11922,8 +12955,11 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J344" s="1">
+        <v>43814.499907407408</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
         <v>344</v>
       </c>
@@ -11953,8 +12989,11 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J345" s="1">
+        <v>43814.499942129631</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
         <v>345</v>
       </c>
@@ -11984,8 +13023,11 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J346" s="1">
+        <v>43814.499965277777</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>346</v>
       </c>
@@ -12015,8 +13057,11 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J347" s="1">
+        <v>43814.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>347</v>
       </c>
@@ -12046,8 +13091,11 @@
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J348" s="1">
+        <v>43814.500023148146</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>348</v>
       </c>
@@ -12077,8 +13125,11 @@
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J349" s="1">
+        <v>43814.5000462963</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>349</v>
       </c>
@@ -12108,8 +13159,11 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J350" s="1">
+        <v>43814.500069444446</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>350</v>
       </c>
@@ -12139,8 +13193,11 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J351" s="1">
+        <v>43814.500104166669</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>351</v>
       </c>
@@ -12170,8 +13227,11 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J352" s="1">
+        <v>43814.498425925929</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>352</v>
       </c>
@@ -12201,8 +13261,11 @@
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J353" s="1">
+        <v>43814.499039351853</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>353</v>
       </c>
@@ -12232,8 +13295,11 @@
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J354" s="1">
+        <v>43814.499374999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>354</v>
       </c>
@@ -12263,8 +13329,11 @@
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J355" s="1">
+        <v>43814.499722222223</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>355</v>
       </c>
@@ -12294,8 +13363,11 @@
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J356" s="1">
+        <v>43814.500277777777</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>356</v>
       </c>
@@ -12325,8 +13397,11 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J357" s="1">
+        <v>43814.500844907408</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>357</v>
       </c>
@@ -12356,8 +13431,11 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J358" s="1">
+        <v>43814.502928240741</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>358</v>
       </c>
@@ -12387,8 +13465,11 @@
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J359" s="1">
+        <v>43814.50340277778</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>359</v>
       </c>
@@ -12418,8 +13499,11 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J360" s="1">
+        <v>43814.506157407406</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>360</v>
       </c>
@@ -12449,8 +13533,11 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J361" s="1">
+        <v>43814.509143518517</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>361</v>
       </c>
@@ -12480,8 +13567,11 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J362" s="1">
+        <v>43814.495636574073</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>362</v>
       </c>
@@ -12511,8 +13601,11 @@
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J363" s="1">
+        <v>43814.496053240742</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>363</v>
       </c>
@@ -12542,8 +13635,11 @@
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J364" s="1">
+        <v>43814.496122685188</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>364</v>
       </c>
@@ -12573,8 +13669,11 @@
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J365" s="1">
+        <v>43814.496423611112</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
         <v>365</v>
       </c>
@@ -12604,8 +13703,11 @@
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J366" s="1">
+        <v>43814.496574074074</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>366</v>
       </c>
@@ -12635,8 +13737,11 @@
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J367" s="1">
+        <v>43814.496655092589</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>367</v>
       </c>
@@ -12666,8 +13771,11 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J368" s="1">
+        <v>43814.496782407405</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
         <v>368</v>
       </c>
@@ -12697,8 +13805,11 @@
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J369" s="1">
+        <v>43814.496886574074</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
         <v>369</v>
       </c>
@@ -12728,8 +13839,11 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J370" s="1">
+        <v>43814.496979166666</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
         <v>370</v>
       </c>
@@ -12759,8 +13873,11 @@
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J371" s="1">
+        <v>43814.497361111113</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
         <v>371</v>
       </c>
@@ -12790,8 +13907,11 @@
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J372" s="1">
+        <v>43814.496863425928</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>372</v>
       </c>
@@ -12821,8 +13941,11 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J373" s="1">
+        <v>43814.497060185182</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
         <v>373</v>
       </c>
@@ -12852,8 +13975,11 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J374" s="1">
+        <v>43814.49763888889</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
         <v>374</v>
       </c>
@@ -12883,8 +14009,11 @@
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J375" s="1">
+        <v>43814.498113425929</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
         <v>375</v>
       </c>
@@ -12914,8 +14043,11 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J376" s="1">
+        <v>43814.498935185184</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
         <v>376</v>
       </c>
@@ -12945,8 +14077,11 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J377" s="1">
+        <v>43814.500381944446</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
         <v>377</v>
       </c>
@@ -12976,8 +14111,11 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J378" s="1">
+        <v>43814.50104166667</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
         <v>378</v>
       </c>
@@ -13007,8 +14145,11 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J379" s="1">
+        <v>43814.501875000002</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
         <v>379</v>
       </c>
@@ -13038,8 +14179,11 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J380" s="1">
+        <v>43814.502372685187</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
         <v>380</v>
       </c>
@@ -13069,8 +14213,11 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J381" s="1">
+        <v>43814.504108796296</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
         <v>381</v>
       </c>
@@ -13100,8 +14247,11 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J382" s="1">
+        <v>43814.497291666667</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
         <v>382</v>
       </c>
@@ -13131,8 +14281,11 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J383" s="1">
+        <v>43814.497407407405</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
         <v>383</v>
       </c>
@@ -13162,8 +14315,11 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J384" s="1">
+        <v>43814.497488425928</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
         <v>384</v>
       </c>
@@ -13193,8 +14349,11 @@
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J385" s="1">
+        <v>43814.497546296298</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
         <v>385</v>
       </c>
@@ -13224,8 +14383,11 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J386" s="1">
+        <v>43814.497627314813</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
         <v>386</v>
       </c>
@@ -13255,8 +14417,11 @@
         <f t="shared" ref="I387:I450" si="13">COUNTIF(F:F,F387)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J387" s="1">
+        <v>43814.497824074075</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
         <v>387</v>
       </c>
@@ -13286,8 +14451,11 @@
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J388" s="1">
+        <v>43814.498252314814</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
         <v>388</v>
       </c>
@@ -13317,8 +14485,11 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J389" s="1">
+        <v>43814.498379629629</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
         <v>389</v>
       </c>
@@ -13348,8 +14519,11 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J390" s="1">
+        <v>43814.498854166668</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
         <v>390</v>
       </c>
@@ -13379,8 +14553,11 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J391" s="1">
+        <v>43814.499027777776</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
         <v>391</v>
       </c>
@@ -13410,8 +14587,11 @@
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J392" s="1">
+        <v>43814.495358796295</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
         <v>392</v>
       </c>
@@ -13441,8 +14621,11 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J393" s="1">
+        <v>43814.495393518519</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
         <v>393</v>
       </c>
@@ -13472,8 +14655,11 @@
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J394" s="1">
+        <v>43814.495451388888</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="6">
         <v>394</v>
       </c>
@@ -13503,8 +14689,11 @@
         <f t="shared" si="13"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J395" s="1">
+        <v>43814.49559027778</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
         <v>395</v>
       </c>
@@ -13534,8 +14723,11 @@
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J396" s="1">
+        <v>43814.495717592596</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>396</v>
       </c>
@@ -13565,8 +14757,11 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J397" s="1">
+        <v>43814.495891203704</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
         <v>397</v>
       </c>
@@ -13596,8 +14791,11 @@
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J398" s="1">
+        <v>43814.496631944443</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
         <v>398</v>
       </c>
@@ -13627,8 +14825,11 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J399" s="1">
+        <v>43814.496782407405</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
         <v>399</v>
       </c>
@@ -13658,8 +14859,11 @@
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J400" s="1">
+        <v>43814.497974537036</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
         <v>400</v>
       </c>
@@ -13689,8 +14893,11 @@
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J401" s="1">
+        <v>43814.499942129631</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
         <v>401</v>
       </c>
@@ -13720,8 +14927,11 @@
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J402" s="1">
+        <v>43814.496805555558</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
         <v>402</v>
       </c>
@@ -13751,8 +14961,11 @@
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J403" s="1">
+        <v>43814.496898148151</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
         <v>403</v>
       </c>
@@ -13782,8 +14995,11 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J404" s="1">
+        <v>43814.49695601852</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
         <v>404</v>
       </c>
@@ -13813,8 +15029,11 @@
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J405" s="1">
+        <v>43814.497025462966</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
         <v>405</v>
       </c>
@@ -13844,8 +15063,11 @@
         <f t="shared" si="13"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J406" s="1">
+        <v>43814.497187499997</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
         <v>406</v>
       </c>
@@ -13875,8 +15097,11 @@
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J407" s="1">
+        <v>43814.497337962966</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
         <v>407</v>
       </c>
@@ -13906,8 +15131,11 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J408" s="1">
+        <v>43814.497465277775</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
         <v>408</v>
       </c>
@@ -13937,8 +15165,11 @@
         <f t="shared" si="13"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J409" s="1">
+        <v>43814.497604166667</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
         <v>409</v>
       </c>
@@ -13968,8 +15199,11 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J410" s="1">
+        <v>43814.497719907406</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
         <v>410</v>
       </c>
@@ -13999,8 +15233,11 @@
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J411" s="1">
+        <v>43814.49795138889</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
         <v>411</v>
       </c>
@@ -14030,8 +15267,11 @@
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J412" s="1">
+        <v>43814.495046296295</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
         <v>412</v>
       </c>
@@ -14061,8 +15301,11 @@
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J413" s="1">
+        <v>43814.495104166665</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
         <v>413</v>
       </c>
@@ -14092,8 +15335,11 @@
         <f t="shared" si="13"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J414" s="1">
+        <v>43814.495173611111</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -14123,8 +15369,11 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J415" s="1">
+        <v>43814.495312500003</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -14154,8 +15403,11 @@
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J416" s="1">
+        <v>43814.495787037034</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
         <v>416</v>
       </c>
@@ -14185,8 +15437,11 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J417" s="1">
+        <v>43814.496064814812</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
         <v>417</v>
       </c>
@@ -14216,8 +15471,11 @@
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J418" s="1">
+        <v>43814.496319444443</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -14247,8 +15505,11 @@
         <f t="shared" si="13"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J419" s="1">
+        <v>43814.497800925928</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -14278,8 +15539,11 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J420" s="1">
+        <v>43814.498518518521</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
         <v>420</v>
       </c>
@@ -14309,8 +15573,11 @@
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J421" s="1">
+        <v>43814.499201388891</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
         <v>421</v>
       </c>
@@ -14340,8 +15607,11 @@
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J422" s="1">
+        <v>43814.496493055558</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
         <v>422</v>
       </c>
@@ -14371,8 +15641,11 @@
         <f t="shared" si="13"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J423" s="1">
+        <v>43814.49690972222</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
         <v>423</v>
       </c>
@@ -14402,8 +15675,11 @@
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J424" s="1">
+        <v>43814.497210648151</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -14433,8 +15709,11 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J425" s="1">
+        <v>43814.497511574074</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -14464,8 +15743,11 @@
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J426" s="1">
+        <v>43814.497627314813</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -14495,8 +15777,11 @@
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J427" s="1">
+        <v>43814.497893518521</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -14526,8 +15811,11 @@
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J428" s="1">
+        <v>43814.498148148145</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -14557,8 +15845,11 @@
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J429" s="1">
+        <v>43814.498460648145</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -14588,8 +15879,11 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J430" s="1">
+        <v>43814.498680555553</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -14619,8 +15913,11 @@
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J431" s="1">
+        <v>43814.498969907407</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -14650,8 +15947,11 @@
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J432" s="1">
+        <v>43814.497719907406</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -14681,8 +15981,11 @@
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J433" s="1">
+        <v>43814.497824074075</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
         <v>433</v>
       </c>
@@ -14712,8 +16015,11 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J434" s="1">
+        <v>43814.497939814813</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
         <v>434</v>
       </c>
@@ -14743,8 +16049,11 @@
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J435" s="1">
+        <v>43814.498148148145</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
         <v>435</v>
       </c>
@@ -14774,8 +16083,11 @@
         <f t="shared" si="13"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J436" s="1">
+        <v>43814.49832175926</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
         <v>436</v>
       </c>
@@ -14805,8 +16117,11 @@
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J437" s="1">
+        <v>43814.498379629629</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="6">
         <v>437</v>
       </c>
@@ -14836,8 +16151,11 @@
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J438" s="1">
+        <v>43814.49858796296</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>438</v>
       </c>
@@ -14867,8 +16185,11 @@
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J439" s="1">
+        <v>43814.499421296299</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
         <v>439</v>
       </c>
@@ -14898,8 +16219,11 @@
         <f t="shared" si="13"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J440" s="1">
+        <v>43814.50072916667</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
         <v>440</v>
       </c>
@@ -14929,8 +16253,11 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J441" s="1">
+        <v>43814.501342592594</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
         <v>441</v>
       </c>
@@ -14960,8 +16287,11 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J442" s="1">
+        <v>43814.496944444443</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
         <v>442</v>
       </c>
@@ -14991,8 +16321,11 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J443" s="1">
+        <v>43814.497581018521</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
         <v>443</v>
       </c>
@@ -15022,8 +16355,11 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J444" s="1">
+        <v>43814.497685185182</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
         <v>444</v>
       </c>
@@ -15053,8 +16389,11 @@
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J445" s="1">
+        <v>43814.497916666667</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
         <v>445</v>
       </c>
@@ -15084,8 +16423,11 @@
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J446" s="1">
+        <v>43814.498113425929</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
         <v>446</v>
       </c>
@@ -15115,8 +16457,11 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J447" s="1">
+        <v>43814.498252314814</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
         <v>447</v>
       </c>
@@ -15146,8 +16491,11 @@
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J448" s="1">
+        <v>43814.498437499999</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
         <v>448</v>
       </c>
@@ -15177,8 +16525,11 @@
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J449" s="1">
+        <v>43814.498611111114</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>449</v>
       </c>
@@ -15208,8 +16559,11 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J450" s="1">
+        <v>43814.49895833333</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
         <v>450</v>
       </c>
@@ -15239,8 +16593,11 @@
         <f t="shared" ref="I451:I514" si="15">COUNTIF(F:F,F451)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J451" s="1">
+        <v>43814.499178240738</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
         <v>451</v>
       </c>
@@ -15270,8 +16627,11 @@
         <f t="shared" si="15"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J452" s="1">
+        <v>43814.496655092589</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
         <v>452</v>
       </c>
@@ -15301,8 +16661,11 @@
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J453" s="1">
+        <v>43814.496770833335</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
         <v>453</v>
       </c>
@@ -15332,8 +16695,11 @@
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J454" s="1">
+        <v>43814.496932870374</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
         <v>454</v>
       </c>
@@ -15363,8 +16729,11 @@
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J455" s="1">
+        <v>43814.497060185182</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>455</v>
       </c>
@@ -15394,8 +16763,11 @@
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J456" s="1">
+        <v>43814.497453703705</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
         <v>456</v>
       </c>
@@ -15425,8 +16797,11 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J457" s="1">
+        <v>43814.49759259259</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
         <v>457</v>
       </c>
@@ -15456,8 +16831,11 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J458" s="1">
+        <v>43814.497812499998</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="6">
         <v>458</v>
       </c>
@@ -15487,8 +16865,11 @@
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J459" s="1">
+        <v>43814.497997685183</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
         <v>459</v>
       </c>
@@ -15518,8 +16899,11 @@
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J460" s="1">
+        <v>43814.498483796298</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
         <v>460</v>
       </c>
@@ -15549,8 +16933,11 @@
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J461" s="1">
+        <v>43814.498738425929</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
         <v>461</v>
       </c>
@@ -15580,8 +16967,11 @@
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J462" s="1">
+        <v>43814.507025462961</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
         <v>462</v>
       </c>
@@ -15611,8 +17001,11 @@
         <f t="shared" si="15"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J463" s="1">
+        <v>43814.50712962963</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
         <v>463</v>
       </c>
@@ -15642,8 +17035,11 @@
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J464" s="1">
+        <v>43814.507210648146</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
         <v>464</v>
       </c>
@@ -15673,8 +17069,11 @@
         <f t="shared" si="15"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J465" s="1">
+        <v>43814.507430555554</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="6">
         <v>465</v>
       </c>
@@ -15704,8 +17103,11 @@
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J466" s="1">
+        <v>43814.5077662037</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="6">
         <v>466</v>
       </c>
@@ -15735,8 +17137,11 @@
         <f t="shared" si="15"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J467" s="1">
+        <v>43814.508067129631</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>467</v>
       </c>
@@ -15766,8 +17171,11 @@
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J468" s="1">
+        <v>43814.508240740739</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
         <v>468</v>
       </c>
@@ -15797,8 +17205,11 @@
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J469" s="1">
+        <v>43814.508287037039</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="6">
         <v>469</v>
       </c>
@@ -15828,8 +17239,11 @@
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J470" s="1">
+        <v>43814.508356481485</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="6">
         <v>470</v>
       </c>
@@ -15859,8 +17273,11 @@
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J471" s="1">
+        <v>43814.508425925924</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
         <v>471</v>
       </c>
@@ -15890,8 +17307,11 @@
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J472" s="1">
+        <v>43814.49732638889</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="6">
         <v>472</v>
       </c>
@@ -15921,8 +17341,11 @@
         <f t="shared" si="15"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J473" s="1">
+        <v>43814.497499999998</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="6">
         <v>473</v>
       </c>
@@ -15952,8 +17375,11 @@
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J474" s="1">
+        <v>43814.497615740744</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="6">
         <v>474</v>
       </c>
@@ -15983,8 +17409,11 @@
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J475" s="1">
+        <v>43814.498310185183</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="6">
         <v>475</v>
       </c>
@@ -16014,8 +17443,11 @@
         <f t="shared" si="15"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J476" s="1">
+        <v>43814.498379629629</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="6">
         <v>476</v>
       </c>
@@ -16045,8 +17477,11 @@
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J477" s="1">
+        <v>43814.498506944445</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="6">
         <v>477</v>
       </c>
@@ -16076,8 +17511,11 @@
         <f t="shared" si="15"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J478" s="1">
+        <v>43814.498969907407</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="6">
         <v>478</v>
       </c>
@@ -16107,8 +17545,11 @@
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J479" s="1">
+        <v>43814.499189814815</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="6">
         <v>479</v>
       </c>
@@ -16138,8 +17579,11 @@
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J480" s="1">
+        <v>43814.500879629632</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="6">
         <v>480</v>
       </c>
@@ -16169,8 +17613,11 @@
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J481" s="1">
+        <v>43814.500960648147</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="6">
         <v>481</v>
       </c>
@@ -16200,8 +17647,11 @@
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J482" s="1">
+        <v>43814.495092592595</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="6">
         <v>482</v>
       </c>
@@ -16231,8 +17681,11 @@
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J483" s="1">
+        <v>43814.495428240742</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
         <v>483</v>
       </c>
@@ -16262,8 +17715,11 @@
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J484" s="1">
+        <v>43814.495555555557</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="6">
         <v>484</v>
       </c>
@@ -16293,8 +17749,11 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J485" s="1">
+        <v>43814.495694444442</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="6">
         <v>485</v>
       </c>
@@ -16324,8 +17783,11 @@
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J486" s="1">
+        <v>43814.496504629627</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
         <v>486</v>
       </c>
@@ -16355,8 +17817,11 @@
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J487" s="1">
+        <v>43814.497048611112</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="6">
         <v>487</v>
       </c>
@@ -16386,8 +17851,11 @@
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J488" s="1">
+        <v>43814.497442129628</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="6">
         <v>488</v>
       </c>
@@ -16417,8 +17885,11 @@
         <f t="shared" si="15"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J489" s="1">
+        <v>43814.49759259259</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="6">
         <v>489</v>
       </c>
@@ -16448,8 +17919,11 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J490" s="1">
+        <v>43814.497673611113</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="6">
         <v>490</v>
       </c>
@@ -16479,8 +17953,11 @@
         <f t="shared" si="15"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J491" s="1">
+        <v>43814.498159722221</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="6">
         <v>491</v>
       </c>
@@ -16510,8 +17987,11 @@
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J492" s="1">
+        <v>43814.499247685184</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="6">
         <v>492</v>
       </c>
@@ -16541,8 +18021,11 @@
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J493" s="1">
+        <v>43814.5000462963</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="6">
         <v>493</v>
       </c>
@@ -16572,8 +18055,11 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J494" s="1">
+        <v>43814.501087962963</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="6">
         <v>494</v>
       </c>
@@ -16603,8 +18089,11 @@
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J495" s="1">
+        <v>43814.50240740741</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="6">
         <v>495</v>
       </c>
@@ -16634,8 +18123,11 @@
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J496" s="1">
+        <v>43814.502835648149</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="6">
         <v>496</v>
       </c>
@@ -16665,8 +18157,11 @@
         <f t="shared" si="15"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J497" s="1">
+        <v>43814.503506944442</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>497</v>
       </c>
@@ -16696,8 +18191,11 @@
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J498" s="1">
+        <v>43814.504201388889</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>498</v>
       </c>
@@ -16727,8 +18225,11 @@
         <f t="shared" si="15"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J499" s="1">
+        <v>43814.505150462966</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="6">
         <v>499</v>
       </c>
@@ -16758,8 +18259,11 @@
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J500" s="1">
+        <v>43814.505358796298</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="6">
         <v>500</v>
       </c>
@@ -16789,8 +18293,11 @@
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J501" s="1">
+        <v>43814.505520833336</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="6">
         <v>501</v>
       </c>
@@ -16820,8 +18327,11 @@
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J502" s="1">
+        <v>43814.495370370372</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="6">
         <v>502</v>
       </c>
@@ -16851,8 +18361,11 @@
         <f t="shared" si="15"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J503" s="1">
+        <v>43814.495706018519</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="6">
         <v>503</v>
       </c>
@@ -16882,8 +18395,11 @@
         <f t="shared" si="15"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J504" s="1">
+        <v>43814.495775462965</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>504</v>
       </c>
@@ -16913,8 +18429,11 @@
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J505" s="1">
+        <v>43814.495937500003</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="6">
         <v>505</v>
       </c>
@@ -16944,8 +18463,11 @@
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J506" s="1">
+        <v>43814.496145833335</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="6">
         <v>506</v>
       </c>
@@ -16975,8 +18497,11 @@
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J507" s="1">
+        <v>43814.496469907404</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="6">
         <v>507</v>
       </c>
@@ -17006,8 +18531,11 @@
         <f t="shared" si="15"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J508" s="1">
+        <v>43814.496805555558</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="6">
         <v>508</v>
       </c>
@@ -17037,8 +18565,11 @@
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J509" s="1">
+        <v>43814.496990740743</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="6">
         <v>509</v>
       </c>
@@ -17068,8 +18599,11 @@
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J510" s="1">
+        <v>43814.497303240743</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="6">
         <v>510</v>
       </c>
@@ -17099,8 +18633,11 @@
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J511" s="1">
+        <v>43814.497974537036</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="6">
         <v>511</v>
       </c>
@@ -17130,8 +18667,11 @@
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J512" s="1">
+        <v>43814.495995370373</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="6">
         <v>512</v>
       </c>
@@ -17161,8 +18701,11 @@
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J513" s="1">
+        <v>43814.496446759258</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" s="6">
         <v>513</v>
       </c>
@@ -17192,8 +18735,11 @@
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J514" s="1">
+        <v>43814.496620370373</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="6">
         <v>514</v>
       </c>
@@ -17223,8 +18769,11 @@
         <f t="shared" ref="I515:I531" si="17">COUNTIF(F:F,F515)</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J515" s="1">
+        <v>43814.496921296297</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="6">
         <v>515</v>
       </c>
@@ -17254,8 +18803,11 @@
         <f t="shared" si="17"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J516" s="1">
+        <v>43814.497083333335</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="6">
         <v>516</v>
       </c>
@@ -17285,8 +18837,11 @@
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J517" s="1">
+        <v>43814.49728009259</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="6">
         <v>517</v>
       </c>
@@ -17316,8 +18871,11 @@
         <f t="shared" si="17"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J518" s="1">
+        <v>43814.497384259259</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="6">
         <v>518</v>
       </c>
@@ -17347,8 +18905,11 @@
         <f t="shared" si="17"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J519" s="1">
+        <v>43814.497627314813</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" s="6">
         <v>519</v>
       </c>
@@ -17378,8 +18939,11 @@
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J520" s="1">
+        <v>43814.498067129629</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" s="6">
         <v>520</v>
       </c>
@@ -17409,8 +18973,11 @@
         <f t="shared" si="17"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J521" s="1">
+        <v>43814.498541666668</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" s="6">
         <v>521</v>
       </c>
@@ -17440,8 +19007,11 @@
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J522" s="1">
+        <v>43814.497349537036</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="6">
         <v>522</v>
       </c>
@@ -17471,8 +19041,11 @@
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J523" s="1">
+        <v>43814.497430555559</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="6">
         <v>523</v>
       </c>
@@ -17502,8 +19075,11 @@
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J524" s="1">
+        <v>43814.497499999998</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" s="6">
         <v>524</v>
       </c>
@@ -17533,8 +19109,11 @@
         <f t="shared" si="17"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J525" s="1">
+        <v>43814.497812499998</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" s="6">
         <v>525</v>
       </c>
@@ -17564,8 +19143,11 @@
         <f t="shared" si="17"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J526" s="1">
+        <v>43814.49790509259</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="6">
         <v>526</v>
       </c>
@@ -17595,8 +19177,11 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J527" s="1">
+        <v>43814.498194444444</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" s="6">
         <v>527</v>
       </c>
@@ -17626,8 +19211,11 @@
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J528" s="1">
+        <v>43814.498356481483</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" s="6">
         <v>528</v>
       </c>
@@ -17657,8 +19245,11 @@
         <f t="shared" si="17"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J529" s="1">
+        <v>43814.498553240737</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" s="6">
         <v>529</v>
       </c>
@@ -17688,8 +19279,11 @@
         <f t="shared" si="17"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J530" s="1">
+        <v>43814.498935185184</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" s="6">
         <v>530</v>
       </c>
@@ -17718,6 +19312,9 @@
       <c r="I531" s="6">
         <f t="shared" si="17"/>
         <v>37</v>
+      </c>
+      <c r="J531" s="1">
+        <v>43814.499178240738</v>
       </c>
     </row>
   </sheetData>
